--- a/data/trans_dic/P16B06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,0%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>79,42; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>38,7; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>84,25; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,95%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>61,72; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>84,13; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>87,68; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>90,61; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>21,3; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>69,18; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,94%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>24,0; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>61,4; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>54,65; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>90,83; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>87,0; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>64,28; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>88,68; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>89,73; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>55,67; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>76,11; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>63,05; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>78,04; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,35%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>45,17; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>64,82; 93,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>67,14; 92,51</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,43%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>64,54; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>81,6; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>82,88; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>88,32; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>84,49; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>90,97; 100,0</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,75%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>78,96; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>85,85; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>91,23; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>82,27; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>86,29; 98,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>95,37; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>84,74; 100,0</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,86%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>80,31; 95,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>91,44; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>88,97; 98,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>90,78; 98,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>94,72; 99,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>92,81; 97,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>89,02; 96,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>95,51; 99,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>93,19; 97,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,93; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,43; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,4; 100,0</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,83; 100,0</t>
+          <t>81,08; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,68; 100,0</t>
+          <t>83,16; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B06-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +691,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,93; 100,0</t>
+          <t>24,63; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -710,29 +711,29 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,42; 100,0</t>
+          <t>81,58; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,7; 100,0</t>
+          <t>36,96; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,43; 100,0</t>
+          <t>79,78; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,25; 100,0</t>
+          <t>83,35; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -805,12 +806,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,72; 100,0</t>
+          <t>62,06; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,13; 100,0</t>
+          <t>84,17; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,68; 100,0</t>
+          <t>86,21; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,14 +836,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,61; 100,0</t>
+          <t>89,57; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +911,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,3; 100,0</t>
+          <t>21,42; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -940,7 +941,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,18; 100,0</t>
+          <t>70,63; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,65; 100,0</t>
+          <t>55,27; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,08; 100,0</t>
+          <t>81,45; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,0; 100,0</t>
+          <t>86,87; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,28; 100,0</t>
+          <t>62,51; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,16; 100,0</t>
+          <t>83,69; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,73; 100,0</t>
+          <t>89,52; 100,0</t>
         </is>
       </c>
     </row>
@@ -1140,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55,67; 100,0</t>
+          <t>48,22; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,11; 100,0</t>
+          <t>78,79; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,05; 100,0</t>
+          <t>63,98; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,04; 100,0</t>
+          <t>78,6; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1172,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1245,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,17; 100,0</t>
+          <t>52,92; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1260,7 +1261,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,82; 93,22</t>
+          <t>64,79; 93,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1275,14 +1276,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67,14; 92,51</t>
+          <t>68,18; 92,62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>64,54; 100,0</t>
+          <t>65,28; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1355,12 +1356,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,6; 100,0</t>
+          <t>79,06; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>82,88; 100,0</t>
+          <t>81,44; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1370,12 +1371,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,32; 100,0</t>
+          <t>90,17; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>84,49; 100,0</t>
+          <t>85,05; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1385,7 +1386,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,97; 100,0</t>
+          <t>91,62; 100,0</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>78,96; 100,0</t>
+          <t>79,02; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1470,32 +1471,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>85,85; 100,0</t>
+          <t>84,53; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>91,23; 100,0</t>
+          <t>93,51; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>82,27; 100,0</t>
+          <t>84,15; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>86,29; 98,59</t>
+          <t>88,02; 98,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>95,37; 100,0</t>
+          <t>93,61; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>84,74; 100,0</t>
+          <t>86,7; 100,0</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>80,31; 95,91</t>
+          <t>79,76; 96,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>91,44; 100,0</t>
+          <t>91,68; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>88,97; 98,81</t>
+          <t>89,59; 98,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>90,78; 98,07</t>
+          <t>90,59; 97,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>94,72; 99,53</t>
+          <t>94,52; 99,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>92,81; 97,98</t>
+          <t>93,27; 98,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>89,02; 96,32</t>
+          <t>89,43; 96,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>95,51; 99,03</t>
+          <t>95,42; 99,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>93,19; 97,62</t>
+          <t>93,07; 97,71</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas pastillas para dormir fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5996</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6591</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15937</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24378</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8334</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19828</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30374</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4152</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1167; 4740</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4163; 5996</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4850; 6591</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14052; 15937</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20654; 25319</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3970; 10743</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16496; 20678</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26100; 31315</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6860</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12138</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12479</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27886</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>39983</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36046</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34746</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52121</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>48526</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5265; 6860</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9619; 12138</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8375; 13496</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24227; 28783</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>37803; 39983</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>33897; 36046</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>30727; 35643</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>49805; 52121</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>44374; 49542</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4049</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3054</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8112</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15495</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3926</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12161</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17681</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>199; 872</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1066; 4979</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>942; 2186</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1698; 3054</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6429; 8112</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13662; 15495</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2503; 3926</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9246; 13091</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15818; 17681</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3499</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8729</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10316</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>27863</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36037</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13815</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>35048</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44767</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1055; 4394</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5514; 7184</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7093; 8729</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6301; 11401</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>23512; 28868</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>32124; 36979</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9873; 15794</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30172; 36053</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>40919; 45709</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5396</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7535</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9570</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35502</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19215</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14012</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>40898</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26750</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3085; 4443</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3746; 5396</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5783; 7535</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5544; 11497</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30090; 38191</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17391; 19215</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10198; 15939</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34259; 43587</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24863; 26750</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2954</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8441</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7014</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10080</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>24953</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9967</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12076</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>33394</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1642; 2954</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>860; 1996</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5424; 10250</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5383; 7014</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8191; 10080</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19632; 28297</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8265; 9967</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10182; 12076</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>27646; 37556</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11461</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>29070</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>23501</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>17329</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>55343</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>34962</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>25351</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>84413</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8103; 12411</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6158; 8023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23873; 30195</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>19842; 24363</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15398; 17329</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>50895; 56444</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>31276; 36774</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>23341; 25351</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>79379; 86639</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>26971</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>23699</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>8573</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>45783</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>62416</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>41838</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>72754</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>86114</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>50411</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>22790; 28839</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>21555; 23699</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6794; 8573</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>40551; 47970</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>59265; 63379</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>37092; 44076</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>67608; 75770</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>81511; 87077</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>45645; 52649</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>58801</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>66377</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>83010</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>133714</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>217221</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>253306</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>192515</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>283597</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>336315</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>51785; 62435</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>62482; 68156</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>77904; 85951</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>127439; 137815</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>209715; 220252</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>246106; 258724</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>183870; 198641</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>276755; 288028</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>326511; 342802</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>